--- a/task-1/tracetables.xlsx
+++ b/task-1/tracetables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\EIA2\task-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD2BA1B-669B-412B-ADAD-A53B9EBF89AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371A889F-509C-48C1-9515-D2A4DC18B932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="45" windowWidth="18375" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,6 +570,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>62064</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>64217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1972236</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>65697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1" descr="https://lucasrohrberg.github.io/EIA2/task-1/boxes.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C59E232-A645-46A7-A844-5BF4480EEAFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="62064" y="30914011"/>
+          <a:ext cx="8532848" cy="4707951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -893,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J264"/>
+  <dimension ref="A1:J266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
@@ -4886,9 +4952,13 @@
         <v>130</v>
       </c>
     </row>
+    <row r="266" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
